--- a/rosters/2023/Washington/Washington.xlsx
+++ b/rosters/2023/Washington/Washington.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="96">
   <si>
     <t>No.</t>
   </si>
@@ -46,36 +46,33 @@
     <t>bbref url</t>
   </si>
   <si>
+    <t>Deni Avdija</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
     <t>Kyle Kuzma</t>
   </si>
   <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Deni Avdija</t>
-  </si>
-  <si>
     <t>Kristaps Porziņģis</t>
   </si>
   <si>
     <t>Monte Morris</t>
   </si>
   <si>
+    <t>Corey Kispert</t>
+  </si>
+  <si>
     <t>Will Barton</t>
   </si>
   <si>
-    <t>Corey Kispert</t>
-  </si>
-  <si>
     <t>Jordan Goodwin (TW)</t>
   </si>
   <si>
     <t>Anthony Gill</t>
   </si>
   <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
     <t>Taj Gibson</t>
   </si>
   <si>
@@ -91,21 +88,21 @@
     <t>Vernon Carey Jr.</t>
   </si>
   <si>
-    <t>Devon Dotson (TW)</t>
+    <t>Kendrick Nunn</t>
   </si>
   <si>
     <t>Isaiah Todd</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -124,54 +121,48 @@
     <t>6-2</t>
   </si>
   <si>
+    <t>6-7</t>
+  </si>
+  <si>
     <t>6-6</t>
   </si>
   <si>
-    <t>6-7</t>
-  </si>
-  <si>
     <t>6-3</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>6-4</t>
   </si>
   <si>
     <t>6-5</t>
   </si>
   <si>
+    <t>January 3, 2001</t>
+  </si>
+  <si>
+    <t>October 1, 1998</t>
+  </si>
+  <si>
     <t>July 24, 1995</t>
   </si>
   <si>
-    <t>October 1, 1998</t>
-  </si>
-  <si>
-    <t>January 3, 2001</t>
-  </si>
-  <si>
     <t>August 2, 1995</t>
   </si>
   <si>
     <t>June 27, 1995</t>
   </si>
   <si>
+    <t>March 3, 1999</t>
+  </si>
+  <si>
     <t>January 6, 1991</t>
   </si>
   <si>
-    <t>March 3, 1999</t>
-  </si>
-  <si>
     <t>October 23, 1998</t>
   </si>
   <si>
     <t>October 17, 1992</t>
   </si>
   <si>
-    <t>February 8, 1998</t>
-  </si>
-  <si>
     <t>June 24, 1985</t>
   </si>
   <si>
@@ -187,42 +178,39 @@
     <t>February 25, 2001</t>
   </si>
   <si>
-    <t>August 2, 1999</t>
+    <t>August 3, 1995</t>
   </si>
   <si>
     <t>October 17, 2001</t>
   </si>
   <si>
+    <t>il</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
-    <t>il</t>
-  </si>
-  <si>
     <t>lv</t>
   </si>
   <si>
-    <t>jp</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -232,21 +220,21 @@
     <t>R</t>
   </si>
   <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
     <t>Utah</t>
   </si>
   <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
     <t>Iowa State</t>
   </si>
   <si>
+    <t>Gonzaga</t>
+  </si>
+  <si>
     <t>Memphis</t>
   </si>
   <si>
-    <t>Gonzaga</t>
-  </si>
-  <si>
     <t>Saint Louis</t>
   </si>
   <si>
@@ -265,39 +253,36 @@
     <t>Duke</t>
   </si>
   <si>
-    <t>Kansas</t>
+    <t>Illinois, Oakland</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/a/avdijde01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/g/gaffoda01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/k/kuzmaky01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/g/gaffoda01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/a/avdijde01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/p/porzikr01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/morrimo01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/k/kispeco01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/bartowi01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/k/kispeco01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/g/goodwjo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/g/gillan01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/h/hachiru01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/g/gibsota01.html</t>
   </si>
   <si>
@@ -313,7 +298,7 @@
     <t>https://www.basketball-reference.com/players/c/careyve01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/d/dotsode01.html</t>
+    <t>https://www.basketball-reference.com/players/n/nunnke01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/t/toddis01.html</t>
@@ -687,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,34 +715,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
         <v>59</v>
       </c>
-      <c r="I2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" t="s">
-        <v>72</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -771,28 +753,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3">
         <v>234</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -800,31 +782,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -838,25 +823,25 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5">
         <v>240</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -870,28 +855,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>183</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -899,34 +884,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -934,34 +919,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -975,28 +960,28 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1010,28 +995,28 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10">
         <v>230</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
         <v>59</v>
       </c>
-      <c r="I10" t="s">
-        <v>65</v>
-      </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1039,7 +1024,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -1048,25 +1033,25 @@
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1074,34 +1059,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F12">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1109,34 +1094,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1144,7 +1129,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1153,25 +1138,25 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F14">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1179,34 +1164,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
       <c r="F15">
-        <v>196</v>
+        <v>270</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" t="s">
         <v>59</v>
       </c>
-      <c r="I15" t="s">
-        <v>71</v>
-      </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1214,34 +1199,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F16">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" t="s">
         <v>59</v>
       </c>
-      <c r="I16" t="s">
-        <v>65</v>
-      </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1249,66 +1234,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F17">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18">
-        <v>220</v>
-      </c>
-      <c r="G18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" t="s">
-        <v>68</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1329,7 +1279,6 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Washington/Washington.xlsx
+++ b/rosters/2023/Washington/Washington.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="100">
   <si>
     <t>No.</t>
   </si>
@@ -64,36 +64,39 @@
     <t>Corey Kispert</t>
   </si>
   <si>
+    <t>Anthony Gill</t>
+  </si>
+  <si>
     <t>Will Barton</t>
   </si>
   <si>
     <t>Jordan Goodwin (TW)</t>
   </si>
   <si>
-    <t>Anthony Gill</t>
+    <t>Bradley Beal</t>
   </si>
   <si>
     <t>Taj Gibson</t>
   </si>
   <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
     <t>Delon Wright</t>
   </si>
   <si>
     <t>Johnny Davis</t>
   </si>
   <si>
+    <t>Kendrick Nunn</t>
+  </si>
+  <si>
     <t>Vernon Carey Jr.</t>
   </si>
   <si>
-    <t>Kendrick Nunn</t>
-  </si>
-  <si>
     <t>Isaiah Todd</t>
   </si>
   <si>
+    <t>Quenton Jackson (TW)</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
@@ -154,36 +157,39 @@
     <t>March 3, 1999</t>
   </si>
   <si>
+    <t>October 17, 1992</t>
+  </si>
+  <si>
     <t>January 6, 1991</t>
   </si>
   <si>
     <t>October 23, 1998</t>
   </si>
   <si>
-    <t>October 17, 1992</t>
+    <t>June 28, 1993</t>
   </si>
   <si>
     <t>June 24, 1985</t>
   </si>
   <si>
-    <t>June 28, 1993</t>
-  </si>
-  <si>
     <t>April 26, 1992</t>
   </si>
   <si>
     <t>February 27, 2002</t>
   </si>
   <si>
+    <t>August 3, 1995</t>
+  </si>
+  <si>
     <t>February 25, 2001</t>
   </si>
   <si>
-    <t>August 3, 1995</t>
-  </si>
-  <si>
     <t>October 17, 2001</t>
   </si>
   <si>
+    <t>September 15, 1998</t>
+  </si>
+  <si>
     <t>il</t>
   </si>
   <si>
@@ -232,28 +238,31 @@
     <t>Gonzaga</t>
   </si>
   <si>
+    <t>South Carolina, Virginia</t>
+  </si>
+  <si>
     <t>Memphis</t>
   </si>
   <si>
     <t>Saint Louis</t>
   </si>
   <si>
-    <t>South Carolina, Virginia</t>
+    <t>Florida</t>
   </si>
   <si>
     <t>USC</t>
   </si>
   <si>
-    <t>Florida</t>
-  </si>
-  <si>
     <t>Wisconsin</t>
   </si>
   <si>
+    <t>Illinois, Oakland</t>
+  </si>
+  <si>
     <t>Duke</t>
   </si>
   <si>
-    <t>Illinois, Oakland</t>
+    <t>Texas A&amp;M</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/a/avdijde01.html</t>
@@ -274,34 +283,37 @@
     <t>https://www.basketball-reference.com/players/k/kispeco01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/g/gillan01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/bartowi01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/g/goodwjo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/g/gillan01.html</t>
+    <t>https://www.basketball-reference.com/players/b/bealbr01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/g/gibsota01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/bealbr01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/w/wrighde01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/d/davisjo06.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/n/nunnke01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/c/careyve01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/n/nunnke01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/t/toddis01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/j/jacksqu01.html</t>
   </si>
 </sst>
 </file>
@@ -672,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -721,25 +733,25 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>210</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -753,28 +765,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>234</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -788,28 +800,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>221</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -823,25 +835,25 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5">
         <v>240</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -855,28 +867,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>183</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -890,28 +902,28 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>220</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -919,34 +931,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
       </c>
       <c r="F8">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -954,34 +966,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
       </c>
       <c r="F9">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -989,34 +1001,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F10">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1024,34 +1036,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F11">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1059,34 +1071,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1100,28 +1112,28 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <v>185</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1135,28 +1147,28 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14">
         <v>196</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1164,34 +1176,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F15">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1199,34 +1211,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F16">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1240,25 +1252,60 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17">
         <v>220</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
         <v>57</v>
       </c>
-      <c r="I17" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>95</v>
+      <c r="H18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1279,6 +1326,7 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Washington/Washington.xlsx
+++ b/rosters/2023/Washington/Washington.xlsx
@@ -55,48 +55,48 @@
     <t>Kyle Kuzma</t>
   </si>
   <si>
+    <t>Corey Kispert</t>
+  </si>
+  <si>
     <t>Kristaps Porziņģis</t>
   </si>
   <si>
     <t>Monte Morris</t>
   </si>
   <si>
-    <t>Corey Kispert</t>
+    <t>Jordan Goodwin</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
   </si>
   <si>
     <t>Anthony Gill</t>
   </si>
   <si>
-    <t>Will Barton</t>
-  </si>
-  <si>
-    <t>Jordan Goodwin (TW)</t>
-  </si>
-  <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
     <t>Taj Gibson</t>
   </si>
   <si>
     <t>Delon Wright</t>
   </si>
   <si>
+    <t>Kendrick Nunn</t>
+  </si>
+  <si>
     <t>Johnny Davis</t>
   </si>
   <si>
-    <t>Kendrick Nunn</t>
-  </si>
-  <si>
-    <t>Vernon Carey Jr.</t>
-  </si>
-  <si>
     <t>Isaiah Todd</t>
   </si>
   <si>
     <t>Quenton Jackson (TW)</t>
   </si>
   <si>
+    <t>Jamaree Bouyea</t>
+  </si>
+  <si>
+    <t>Jay Huff (TW)</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
@@ -118,18 +118,15 @@
     <t>6-10</t>
   </si>
   <si>
+    <t>6-7</t>
+  </si>
+  <si>
     <t>7-3</t>
   </si>
   <si>
     <t>6-2</t>
   </si>
   <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
     <t>6-3</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
     <t>6-5</t>
   </si>
   <si>
+    <t>7-1</t>
+  </si>
+  <si>
     <t>January 3, 2001</t>
   </si>
   <si>
@@ -148,48 +148,48 @@
     <t>July 24, 1995</t>
   </si>
   <si>
+    <t>March 3, 1999</t>
+  </si>
+  <si>
     <t>August 2, 1995</t>
   </si>
   <si>
     <t>June 27, 1995</t>
   </si>
   <si>
-    <t>March 3, 1999</t>
+    <t>October 23, 1998</t>
+  </si>
+  <si>
+    <t>June 28, 1993</t>
   </si>
   <si>
     <t>October 17, 1992</t>
   </si>
   <si>
-    <t>January 6, 1991</t>
-  </si>
-  <si>
-    <t>October 23, 1998</t>
-  </si>
-  <si>
-    <t>June 28, 1993</t>
-  </si>
-  <si>
     <t>June 24, 1985</t>
   </si>
   <si>
     <t>April 26, 1992</t>
   </si>
   <si>
+    <t>August 3, 1995</t>
+  </si>
+  <si>
     <t>February 27, 2002</t>
   </si>
   <si>
-    <t>August 3, 1995</t>
-  </si>
-  <si>
-    <t>February 25, 2001</t>
-  </si>
-  <si>
     <t>October 17, 2001</t>
   </si>
   <si>
     <t>September 15, 1998</t>
   </si>
   <si>
+    <t>June 27, 1999</t>
+  </si>
+  <si>
+    <t>August 25, 1998</t>
+  </si>
+  <si>
     <t>il</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>5</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -232,39 +232,39 @@
     <t>Utah</t>
   </si>
   <si>
+    <t>Gonzaga</t>
+  </si>
+  <si>
     <t>Iowa State</t>
   </si>
   <si>
-    <t>Gonzaga</t>
+    <t>Saint Louis</t>
+  </si>
+  <si>
+    <t>Florida</t>
   </si>
   <si>
     <t>South Carolina, Virginia</t>
   </si>
   <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>Saint Louis</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
     <t>USC</t>
   </si>
   <si>
+    <t>Illinois, Oakland</t>
+  </si>
+  <si>
     <t>Wisconsin</t>
   </si>
   <si>
-    <t>Illinois, Oakland</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
     <t>Texas A&amp;M</t>
   </si>
   <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/a/avdijde01.html</t>
   </si>
   <si>
@@ -274,46 +274,46 @@
     <t>https://www.basketball-reference.com/players/k/kuzmaky01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/k/kispeco01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/p/porzikr01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/morrimo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/k/kispeco01.html</t>
+    <t>https://www.basketball-reference.com/players/g/goodwjo01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/bealbr01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/g/gillan01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/bartowi01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/g/goodwjo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/bealbr01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/g/gibsota01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/w/wrighde01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/n/nunnke01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/d/davisjo06.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/n/nunnke01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/c/careyve01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/t/toddis01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/j/jacksqu01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/bouyeja01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/h/huffja01.html</t>
   </si>
 </sst>
 </file>
@@ -829,28 +829,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
       </c>
       <c r="F5">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
         <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>86</v>
@@ -861,31 +864,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
       </c>
       <c r="F6">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>87</v>
@@ -896,19 +896,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
       </c>
       <c r="F7">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -917,7 +917,7 @@
         <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
         <v>73</v>
@@ -931,19 +931,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G8" t="s">
         <v>47</v>
@@ -952,7 +952,7 @@
         <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
         <v>74</v>
@@ -966,7 +966,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -975,10 +975,10 @@
         <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="G9" t="s">
         <v>48</v>
@@ -1001,19 +1001,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F10">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="G10" t="s">
         <v>49</v>
@@ -1022,7 +1022,7 @@
         <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J10" t="s">
         <v>76</v>
@@ -1036,19 +1036,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -1057,7 +1057,7 @@
         <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
         <v>77</v>
@@ -1071,19 +1071,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F12">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="G12" t="s">
         <v>51</v>
@@ -1092,10 +1092,10 @@
         <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>93</v>
@@ -1106,7 +1106,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -1115,10 +1115,10 @@
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G13" t="s">
         <v>52</v>
@@ -1127,10 +1127,10 @@
         <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>94</v>
@@ -1150,7 +1150,7 @@
         <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14">
         <v>196</v>
@@ -1176,19 +1176,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="G15" t="s">
         <v>54</v>
@@ -1197,10 +1197,7 @@
         <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>96</v>
@@ -1211,19 +1208,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F16">
-        <v>270</v>
+        <v>175</v>
       </c>
       <c r="G16" t="s">
         <v>55</v>
@@ -1232,10 +1229,10 @@
         <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>97</v>
@@ -1245,20 +1242,17 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>14</v>
-      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F17">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="G17" t="s">
         <v>56</v>
@@ -1267,7 +1261,10 @@
         <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="J17" t="s">
+        <v>81</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>98</v>
@@ -1277,20 +1274,17 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>29</v>
-      </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
       </c>
       <c r="F18">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="G18" t="s">
         <v>57</v>
@@ -1299,7 +1293,7 @@
         <v>59</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J18" t="s">
         <v>82</v>

--- a/rosters/2023/Washington/Washington.xlsx
+++ b/rosters/2023/Washington/Washington.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="102">
   <si>
     <t>No.</t>
   </si>
@@ -91,12 +91,12 @@
     <t>Quenton Jackson (TW)</t>
   </si>
   <si>
-    <t>Jamaree Bouyea</t>
-  </si>
-  <si>
     <t>Jay Huff (TW)</t>
   </si>
   <si>
+    <t>Xavier Cooks</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
@@ -139,6 +139,9 @@
     <t>7-1</t>
   </si>
   <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>January 3, 2001</t>
   </si>
   <si>
@@ -184,12 +187,12 @@
     <t>September 15, 1998</t>
   </si>
   <si>
-    <t>June 27, 1999</t>
-  </si>
-  <si>
     <t>August 25, 1998</t>
   </si>
   <si>
+    <t>August 19, 1995</t>
+  </si>
+  <si>
     <t>il</t>
   </si>
   <si>
@@ -199,6 +202,9 @@
     <t>lv</t>
   </si>
   <si>
+    <t>au</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -259,12 +265,12 @@
     <t>Texas A&amp;M</t>
   </si>
   <si>
-    <t>San Francisco</t>
-  </si>
-  <si>
     <t>Virginia</t>
   </si>
   <si>
+    <t>Winthrop University</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/a/avdijde01.html</t>
   </si>
   <si>
@@ -310,10 +316,10 @@
     <t>https://www.basketball-reference.com/players/j/jacksqu01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/bouyeja01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/h/huffja01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/c/cooksxa01.html</t>
   </si>
 </sst>
 </file>
@@ -742,16 +748,16 @@
         <v>210</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -774,19 +780,19 @@
         <v>234</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -809,19 +815,19 @@
         <v>221</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -844,19 +850,19 @@
         <v>220</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -879,16 +885,16 @@
         <v>240</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -911,19 +917,19 @@
         <v>183</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -946,19 +952,19 @@
         <v>200</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -981,19 +987,19 @@
         <v>207</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1016,19 +1022,19 @@
         <v>230</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1051,19 +1057,19 @@
         <v>232</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1086,19 +1092,19 @@
         <v>185</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1121,19 +1127,19 @@
         <v>190</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1156,19 +1162,19 @@
         <v>196</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1191,16 +1197,16 @@
         <v>220</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1223,51 +1229,54 @@
         <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>34</v>
+      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F17">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1278,28 +1287,28 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/rosters/2023/Washington/Washington.xlsx
+++ b/rosters/2023/Washington/Washington.xlsx
@@ -46,63 +46,63 @@
     <t>bbref url</t>
   </si>
   <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
     <t>Deni Avdija</t>
   </si>
   <si>
-    <t>Daniel Gafford</t>
+    <t>Corey Kispert</t>
+  </si>
+  <si>
+    <t>Kristaps Porziņģis</t>
   </si>
   <si>
     <t>Kyle Kuzma</t>
   </si>
   <si>
-    <t>Corey Kispert</t>
-  </si>
-  <si>
-    <t>Kristaps Porziņģis</t>
-  </si>
-  <si>
     <t>Monte Morris</t>
   </si>
   <si>
     <t>Jordan Goodwin</t>
   </si>
   <si>
+    <t>Anthony Gill</t>
+  </si>
+  <si>
     <t>Bradley Beal</t>
   </si>
   <si>
-    <t>Anthony Gill</t>
+    <t>Delon Wright</t>
   </si>
   <si>
     <t>Taj Gibson</t>
   </si>
   <si>
-    <t>Delon Wright</t>
-  </si>
-  <si>
     <t>Kendrick Nunn</t>
   </si>
   <si>
     <t>Johnny Davis</t>
   </si>
   <si>
+    <t>Xavier Cooks</t>
+  </si>
+  <si>
+    <t>Quenton Jackson (TW)</t>
+  </si>
+  <si>
+    <t>Jay Huff (TW)</t>
+  </si>
+  <si>
     <t>Isaiah Todd</t>
   </si>
   <si>
-    <t>Quenton Jackson (TW)</t>
-  </si>
-  <si>
-    <t>Jay Huff (TW)</t>
-  </si>
-  <si>
-    <t>Xavier Cooks</t>
+    <t>C</t>
   </si>
   <si>
     <t>SF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
@@ -112,12 +112,12 @@
     <t>SG</t>
   </si>
   <si>
+    <t>6-10</t>
+  </si>
+  <si>
     <t>6-9</t>
   </si>
   <si>
-    <t>6-10</t>
-  </si>
-  <si>
     <t>6-7</t>
   </si>
   <si>
@@ -136,123 +136,123 @@
     <t>6-5</t>
   </si>
   <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>7-1</t>
   </si>
   <si>
-    <t>6-8</t>
+    <t>October 1, 1998</t>
   </si>
   <si>
     <t>January 3, 2001</t>
   </si>
   <si>
-    <t>October 1, 1998</t>
+    <t>March 3, 1999</t>
+  </si>
+  <si>
+    <t>August 2, 1995</t>
   </si>
   <si>
     <t>July 24, 1995</t>
   </si>
   <si>
-    <t>March 3, 1999</t>
-  </si>
-  <si>
-    <t>August 2, 1995</t>
-  </si>
-  <si>
     <t>June 27, 1995</t>
   </si>
   <si>
     <t>October 23, 1998</t>
   </si>
   <si>
+    <t>October 17, 1992</t>
+  </si>
+  <si>
     <t>June 28, 1993</t>
   </si>
   <si>
-    <t>October 17, 1992</t>
+    <t>April 26, 1992</t>
   </si>
   <si>
     <t>June 24, 1985</t>
   </si>
   <si>
-    <t>April 26, 1992</t>
-  </si>
-  <si>
     <t>August 3, 1995</t>
   </si>
   <si>
     <t>February 27, 2002</t>
   </si>
   <si>
+    <t>August 19, 1995</t>
+  </si>
+  <si>
+    <t>September 15, 1998</t>
+  </si>
+  <si>
+    <t>August 25, 1998</t>
+  </si>
+  <si>
     <t>October 17, 2001</t>
   </si>
   <si>
-    <t>September 15, 1998</t>
-  </si>
-  <si>
-    <t>August 25, 1998</t>
-  </si>
-  <si>
-    <t>August 19, 1995</t>
+    <t>us</t>
   </si>
   <si>
     <t>il</t>
   </si>
   <si>
-    <t>us</t>
-  </si>
-  <si>
     <t>lv</t>
   </si>
   <si>
     <t>au</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
     <t>Arkansas</t>
   </si>
   <si>
+    <t>Gonzaga</t>
+  </si>
+  <si>
     <t>Utah</t>
   </si>
   <si>
-    <t>Gonzaga</t>
-  </si>
-  <si>
     <t>Iowa State</t>
   </si>
   <si>
     <t>Saint Louis</t>
   </si>
   <si>
+    <t>South Carolina, Virginia</t>
+  </si>
+  <si>
     <t>Florida</t>
   </si>
   <si>
-    <t>South Carolina, Virginia</t>
-  </si>
-  <si>
     <t>USC</t>
   </si>
   <si>
@@ -262,64 +262,64 @@
     <t>Wisconsin</t>
   </si>
   <si>
+    <t>Winthrop University</t>
+  </si>
+  <si>
     <t>Texas A&amp;M</t>
   </si>
   <si>
     <t>Virginia</t>
   </si>
   <si>
-    <t>Winthrop University</t>
+    <t>https://www.basketball-reference.com/players/g/gaffoda01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/a/avdijde01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/g/gaffoda01.html</t>
+    <t>https://www.basketball-reference.com/players/k/kispeco01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/p/porzikr01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/k/kuzmaky01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/k/kispeco01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/p/porzikr01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/morrimo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/g/goodwjo01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/g/gillan01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/bealbr01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/g/gillan01.html</t>
+    <t>https://www.basketball-reference.com/players/w/wrighde01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/g/gibsota01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/wrighde01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/n/nunnke01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/d/davisjo06.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/c/cooksxa01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/j/jacksqu01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/h/huffja01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/t/toddis01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/j/jacksqu01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/h/huffja01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/c/cooksxa01.html</t>
   </si>
 </sst>
 </file>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -745,7 +745,7 @@
         <v>32</v>
       </c>
       <c r="F2">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="G2" t="s">
         <v>42</v>
@@ -755,6 +755,9 @@
       </c>
       <c r="I2" t="s">
         <v>63</v>
+      </c>
+      <c r="J2" t="s">
+        <v>72</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>85</v>
@@ -765,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -777,7 +780,7 @@
         <v>33</v>
       </c>
       <c r="F3">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -787,9 +790,6 @@
       </c>
       <c r="I3" t="s">
         <v>64</v>
-      </c>
-      <c r="J3" t="s">
-        <v>72</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>86</v>
@@ -800,25 +800,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G4" t="s">
         <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
         <v>65</v>
@@ -835,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -844,22 +844,19 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I5" t="s">
         <v>66</v>
-      </c>
-      <c r="J5" t="s">
-        <v>74</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>88</v>
@@ -870,28 +867,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
         <v>67</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>89</v>
@@ -920,10 +920,10 @@
         <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
         <v>75</v>
@@ -955,10 +955,10 @@
         <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
         <v>76</v>
@@ -972,28 +972,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="G9" t="s">
         <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
         <v>77</v>
@@ -1007,28 +1007,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F10">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="G10" t="s">
         <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J10" t="s">
         <v>78</v>
@@ -1042,31 +1042,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F11">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="G11" t="s">
         <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
         <v>69</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>94</v>
@@ -1077,31 +1077,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F12">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="G12" t="s">
         <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
         <v>70</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>95</v>
@@ -1130,10 +1130,10 @@
         <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
         <v>80</v>
@@ -1165,7 +1165,7 @@
         <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
         <v>71</v>
@@ -1182,7 +1182,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -1191,19 +1191,22 @@
         <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F15">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="G15" t="s">
         <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="J15" t="s">
+        <v>82</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>98</v>
@@ -1232,13 +1235,13 @@
         <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I16" t="s">
         <v>71</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>99</v>
@@ -1255,10 +1258,10 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17">
         <v>240</v>
@@ -1267,13 +1270,13 @@
         <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>100</v>
@@ -1283,6 +1286,9 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>14</v>
+      </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
@@ -1290,22 +1296,19 @@
         <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F18">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="G18" t="s">
         <v>58</v>
       </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I18" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>101</v>
